--- a/table_nonstandardized.xlsx
+++ b/table_nonstandardized.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antalertl/Desktop/r_projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antalertl/Desktop/r_projects/clusters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2846F9-D2B2-8B40-9F2D-54C135C6745C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DBBDC1-E8F8-2446-B683-872C80779E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" activeTab="7" xr2:uid="{EA35E826-2057-C747-802F-02329946F13C}"/>
+    <workbookView xWindow="0" yWindow="2380" windowWidth="14400" windowHeight="9660" xr2:uid="{EA35E826-2057-C747-802F-02329946F13C}"/>
   </bookViews>
   <sheets>
     <sheet name="table1" sheetId="11" r:id="rId1"/>
@@ -2123,20 +2123,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2456,8 +2455,8 @@
   </sheetPr>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2468,18 +2467,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2999,38 +2998,38 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="10.83203125" style="5"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="7"/>
-    <col min="21" max="21" width="10.83203125" style="7"/>
-    <col min="31" max="31" width="10.83203125" style="7"/>
+    <col min="11" max="11" width="10.83203125" style="5"/>
+    <col min="21" max="21" width="10.83203125" style="5"/>
+    <col min="31" max="31" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="K1" s="7" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="K1" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="5" t="s">
         <v>647</v>
       </c>
     </row>
@@ -3046,7 +3045,7 @@
         <v>330</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="5" t="s">
         <v>648</v>
       </c>
     </row>
@@ -10258,39 +10257,38 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="7"/>
-    <col min="2" max="3" width="10.83203125" style="8"/>
+    <col min="1" max="1" width="10.83203125" style="5"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="7"/>
-    <col min="22" max="22" width="10.83203125" style="7"/>
-    <col min="31" max="31" width="10.83203125" style="7"/>
+    <col min="13" max="13" width="10.83203125" style="5"/>
+    <col min="22" max="22" width="10.83203125" style="5"/>
+    <col min="31" max="31" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="M1" s="7" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="M1" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="5" t="s">
         <v>647</v>
       </c>
     </row>
@@ -10306,13 +10304,13 @@
         <v>330</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AE2" s="5" t="s">
         <v>650</v>
       </c>
     </row>
@@ -10498,7 +10496,6 @@
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="C6"/>
       <c r="D6" s="4" t="s">
         <v>71</v>
       </c>
@@ -10588,7 +10585,6 @@
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="C7"/>
       <c r="D7" s="4" t="s">
         <v>72</v>
       </c>
@@ -10678,7 +10674,6 @@
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="C8"/>
       <c r="D8" s="4" t="s">
         <v>73</v>
       </c>
@@ -10775,7 +10770,6 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="C10"/>
       <c r="D10" s="4" t="s">
         <v>71</v>
       </c>
@@ -10865,7 +10859,6 @@
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="C11"/>
       <c r="D11" s="4" t="s">
         <v>72</v>
       </c>
@@ -10955,7 +10948,6 @@
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="C12"/>
       <c r="D12" s="4" t="s">
         <v>73</v>
       </c>
@@ -11052,7 +11044,6 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="C14"/>
       <c r="D14" s="4" t="s">
         <v>71</v>
       </c>
@@ -11142,7 +11133,6 @@
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="C15"/>
       <c r="D15" s="4" t="s">
         <v>72</v>
       </c>
@@ -11232,7 +11222,6 @@
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="C16"/>
       <c r="D16" s="4" t="s">
         <v>73</v>
       </c>
@@ -11328,7 +11317,6 @@
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C18"/>
       <c r="D18" s="4" t="s">
         <v>71</v>
       </c>
@@ -11418,7 +11406,6 @@
       </c>
     </row>
     <row r="19" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C19"/>
       <c r="D19" s="4" t="s">
         <v>72</v>
       </c>
@@ -11508,7 +11495,6 @@
       </c>
     </row>
     <row r="20" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C20"/>
       <c r="D20" s="4" t="s">
         <v>73</v>
       </c>
@@ -11604,7 +11590,6 @@
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C22"/>
       <c r="D22" s="4" t="s">
         <v>71</v>
       </c>
@@ -11694,7 +11679,6 @@
       </c>
     </row>
     <row r="23" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C23"/>
       <c r="D23" s="4" t="s">
         <v>72</v>
       </c>
@@ -11784,7 +11768,6 @@
       </c>
     </row>
     <row r="24" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C24"/>
       <c r="D24" s="4" t="s">
         <v>73</v>
       </c>
@@ -11880,7 +11863,6 @@
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C26"/>
       <c r="D26" s="4" t="s">
         <v>71</v>
       </c>
@@ -11970,7 +11952,6 @@
       </c>
     </row>
     <row r="27" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C27"/>
       <c r="D27" s="4" t="s">
         <v>72</v>
       </c>
@@ -12060,7 +12041,6 @@
       </c>
     </row>
     <row r="28" spans="3:39" x14ac:dyDescent="0.2">
-      <c r="C28"/>
       <c r="D28" s="4" t="s">
         <v>73</v>
       </c>
@@ -12200,7 +12180,6 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
       <c r="C1" s="2" t="s">
         <v>651</v>
       </c>
@@ -12212,7 +12191,6 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
       <c r="B2" t="s">
         <v>180</v>
       </c>
@@ -12709,17 +12687,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -13273,17 +13251,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -13830,25 +13808,25 @@
   </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
